--- a/biology/Zoologie/Enantiopus/Enantiopus.xlsx
+++ b/biology/Zoologie/Enantiopus/Enantiopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enantiopus est un genre de poissons de la famille des Cichlidae. Toutes ses espèces sont endémiques du lac Tanganyika.
 </t>
@@ -511,13 +523,50 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (1 février 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (1 février 2016) :
 Enantiopus albini (Steindachner, 1909)
-FishBase                                           (1 février 2016)[2] ne reconnaît pas ce genre et classe ses espèces dans le genre Xenotilapia.
-Note
-Auquel selon d'autres sources, il faut ajouter :
+FishBase                                           (1 février 2016) ne reconnaît pas ce genre et classe ses espèces dans le genre Xenotilapia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enantiopus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enantiopus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Auquel selon d'autres sources, il faut ajouter :
 Enantiopus melanogenis - espèce qui comprend plusieurs variétés géographiques</t>
         </is>
       </c>
